--- a/3. Matriz de Rastreabilidade dos Requisitos.xlsx
+++ b/3. Matriz de Rastreabilidade dos Requisitos.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="123820"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Escritorio de Projetos\Modelos\02-Planejamento\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="165" windowWidth="11340" windowHeight="8775"/>
   </bookViews>
@@ -20,13 +15,13 @@
     <definedName name="Status">Param!$E$4:$E$11</definedName>
     <definedName name="Tipo">Param!$D$4:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <webPublishing codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Comentários</t>
   </si>
@@ -119,13 +114,109 @@
   </si>
   <si>
     <t>Cod. EAP</t>
+  </si>
+  <si>
+    <t>A interface web deve ser aceita pelo cliente obedecendo o padrão visual.</t>
+  </si>
+  <si>
+    <t>Cliente irá prover o padrão visual.</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Cadastro de Ordem de Compra</t>
+  </si>
+  <si>
+    <t>O sistema deve cadastrar ordens de compras solicitados pelo usuários.</t>
+  </si>
+  <si>
+    <t>Cadastro deve ser efetuado de forma prática e sem margem a erros</t>
+  </si>
+  <si>
+    <t>Gerenciamento de fornecedores</t>
+  </si>
+  <si>
+    <t>Permitir cadastrar, excluir e editar dados</t>
+  </si>
+  <si>
+    <t>Ambiente que permite cadastrar empresas de diversos segmentos seguindo os padrões pré-definidos.</t>
+  </si>
+  <si>
+    <t>Consultas automatizadas</t>
+  </si>
+  <si>
+    <t>Utilizar linguagem JAVA Spring</t>
+  </si>
+  <si>
+    <t>Deverá ser utilizado a linguagem JAVA para atender as funcionalidades</t>
+  </si>
+  <si>
+    <t>Agilidade do sistema, segurança e padrões de projeto</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Utilizar padrão responsivo Bootstrap para melhor apresentação do layout.</t>
+  </si>
+  <si>
+    <t>Design responsivo Bootstrap</t>
+  </si>
+  <si>
+    <t>Permitir a visualização de forma organizada e usual.</t>
+  </si>
+  <si>
+    <t>Servidor IBM</t>
+  </si>
+  <si>
+    <t>Sistema será hospedado no servidor IBM oferecido pelo cliente</t>
+  </si>
+  <si>
+    <t>Servidor que atenda as necessidades do sistema.</t>
+  </si>
+  <si>
+    <t>Permitir consultar preços e dados de fornecedores</t>
+  </si>
+  <si>
+    <t>Exibir todas as informações de fornecedores e seus produtos em uma única tela</t>
+  </si>
+  <si>
+    <t>Banco de Dados Postgree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizar SGBD Postgree </t>
+  </si>
+  <si>
+    <t>Banco de Dados relacional</t>
+  </si>
+  <si>
+    <t>Relatórios gerenciais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oferecer uma gama de relatórios gerenciais </t>
+  </si>
+  <si>
+    <t>Permitir a exportação nos formatos .xls, .pdf e .csv</t>
+  </si>
+  <si>
+    <t>Controle de custo</t>
+  </si>
+  <si>
+    <t>O sistema deve possuir uma tela para aprovação da Ordem de Compra pelo gerente da área.</t>
+  </si>
+  <si>
+    <t>Permitir o gerente de departamento aprovar ou reprovar a Ordem de compra feita pelo seu departamento.</t>
+  </si>
+  <si>
+    <t>Definição do layout do sistema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -760,52 +851,52 @@
     </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="Accent1" xfId="1" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent1 - 20%" xfId="2"/>
     <cellStyle name="Accent1 - 40%" xfId="3"/>
     <cellStyle name="Accent1 - 60%" xfId="4"/>
-    <cellStyle name="Accent2" xfId="5" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent2 - 20%" xfId="6"/>
     <cellStyle name="Accent2 - 40%" xfId="7"/>
     <cellStyle name="Accent2 - 60%" xfId="8"/>
-    <cellStyle name="Accent3" xfId="9" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent3 - 20%" xfId="10"/>
     <cellStyle name="Accent3 - 40%" xfId="11"/>
     <cellStyle name="Accent3 - 60%" xfId="12"/>
-    <cellStyle name="Accent4" xfId="13" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent4 - 20%" xfId="14"/>
     <cellStyle name="Accent4 - 40%" xfId="15"/>
     <cellStyle name="Accent4 - 60%" xfId="16"/>
-    <cellStyle name="Accent5" xfId="17" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent5 - 20%" xfId="18"/>
     <cellStyle name="Accent5 - 40%" xfId="19"/>
     <cellStyle name="Accent5 - 60%" xfId="20"/>
-    <cellStyle name="Accent6" xfId="21" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Accent6 - 20%" xfId="22"/>
     <cellStyle name="Accent6 - 40%" xfId="23"/>
     <cellStyle name="Accent6 - 60%" xfId="24"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="37" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Emphasis 1" xfId="28"/>
     <cellStyle name="Emphasis 2" xfId="29"/>
     <cellStyle name="Emphasis 3" xfId="30"/>
-    <cellStyle name="Good" xfId="31" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="32" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="33" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="35" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="36" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="37" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="38" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="5" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="9" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="13" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="17" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="21" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="36" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="45"/>
-    <cellStyle name="Note" xfId="39" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="40" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="39" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Percent 2" xfId="44"/>
+    <cellStyle name="Saída" xfId="40" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Sheet Title" xfId="41"/>
+    <cellStyle name="Texto de Aviso" xfId="43" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="32" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="33" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="34" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="35" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -832,9 +923,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -872,9 +963,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,10 +997,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,10 +1031,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1114,20 +1203,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="40.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="14" style="4" customWidth="1"/>
@@ -1138,7 +1227,7 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" s="17" customFormat="1" ht="30">
       <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
@@ -1173,157 +1262,297 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" s="1" customFormat="1">
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" s="1" customFormat="1">
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" s="1" customFormat="1">
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" s="1" customFormat="1">
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" s="1" customFormat="1">
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" s="1" customFormat="1">
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" s="1" customFormat="1">
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" s="1" customFormat="1">
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" s="1" customFormat="1">
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" s="1" customFormat="1">
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" s="1" customFormat="1">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1338,7 +1567,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" s="1" customFormat="1">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1353,7 +1582,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" s="1" customFormat="1">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1368,7 +1597,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" s="1" customFormat="1">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1383,7 +1612,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1398,7 +1627,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1413,7 +1642,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1428,7 +1657,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1443,7 +1672,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1458,7 +1687,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -1473,7 +1702,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -1489,7 +1718,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -1504,7 +1733,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -1519,7 +1748,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -1534,7 +1763,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -1549,7 +1778,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -1564,7 +1793,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -1579,7 +1808,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -1629,14 +1858,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="6" customWidth="1"/>
@@ -1646,7 +1875,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" s="18" customFormat="1">
       <c r="B2" s="20" t="s">
         <v>26</v>
       </c>
@@ -1660,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1897,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
@@ -1682,7 +1911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>13</v>
@@ -1694,7 +1923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>11</v>
@@ -1706,7 +1935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>9</v>
@@ -1718,7 +1947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
         <v>7</v>
@@ -1728,7 +1957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -1736,7 +1965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
@@ -1744,7 +1973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="15"/>
